--- a/reportedbug.xlsx
+++ b/reportedbug.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\approach\otherreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\approach\otherreport\paper\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="679">
   <si>
     <t>gcc++</t>
   </si>
@@ -3253,10 +3253,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>https://gcc.gnu.org/bugzilla/show_bug.cgi?id=86719</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>https://gcc.gnu.org/bugzilla/show_bug.cgi?id=201</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4008,6 +4004,14 @@
   </si>
   <si>
     <t>reopen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gcc.gnu.org/bugzilla/show_bug.cgi?id=86719</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice-on-valid-code</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4136,7 +4140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4177,6 +4181,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4242,7 +4249,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="B1:K88" totalsRowShown="0">
   <autoFilter ref="B1:K88"/>
   <sortState ref="B2:K88">
-    <sortCondition ref="F1:F88"/>
+    <sortCondition ref="I1:I88"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" name="reported ID"/>
@@ -4264,7 +4271,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="B1:K70" totalsRowShown="0">
   <autoFilter ref="B1:K70"/>
   <sortState ref="B2:K70">
-    <sortCondition ref="F1:F70"/>
+    <sortCondition ref="I1:I70"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" name="reported ID"/>
@@ -4548,7 +4555,7 @@
   <dimension ref="A1:K191"/>
   <sheetViews>
     <sheetView topLeftCell="B61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4572,13 +4579,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -4601,1094 +4608,1119 @@
     </row>
     <row r="2" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>86476</v>
+        <v>86665</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>374</v>
+        <v>642</v>
       </c>
       <c r="D2">
-        <v>21437</v>
+        <v>1876</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>375</v>
+        <v>476</v>
       </c>
       <c r="F2" t="s">
-        <v>658</v>
+        <v>477</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>365</v>
       </c>
       <c r="H2" t="s">
-        <v>376</v>
+        <v>478</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>394</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>377</v>
+        <v>479</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>86719</v>
+        <v>86502</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>495</v>
+        <v>401</v>
       </c>
       <c r="D3">
-        <v>201</v>
+        <v>5134</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
       <c r="F3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26">
+        <v>86298</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="26">
+        <v>6964</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12">
+        <v>86596</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="D5" s="12">
+        <v>7607</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="G3" t="s">
-        <v>497</v>
-      </c>
-      <c r="H3" t="s">
-        <v>447</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>86665</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="D4">
-        <v>1876</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="F4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G4" t="s">
-        <v>365</v>
-      </c>
-      <c r="H4" t="s">
-        <v>478</v>
-      </c>
-      <c r="I4" t="s">
-        <v>394</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>86502</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D5">
-        <v>5134</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F5" t="s">
-        <v>347</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G5" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="26" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>86185</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6">
+        <v>9276</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>86580</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7">
+        <v>10618</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H7" t="s">
         <v>331</v>
       </c>
-      <c r="I5" t="s">
-        <v>403</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>86298</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6964</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F6" t="s">
-        <v>299</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12">
-        <v>86596</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="D7" s="12">
-        <v>7607</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" t="s">
         <v>437</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>449</v>
+      <c r="J7" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>86307</v>
+        <v>86230</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>339</v>
+        <v>250</v>
       </c>
       <c r="D8">
-        <v>7863</v>
+        <v>14500</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>340</v>
+        <v>251</v>
       </c>
       <c r="F8" t="s">
-        <v>341</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>342</v>
+        <v>155</v>
       </c>
       <c r="H8" t="s">
-        <v>343</v>
+        <v>252</v>
       </c>
       <c r="I8" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>344</v>
+        <v>253</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>86310</v>
+      <c r="B9" s="2">
+        <v>86600</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>345</v>
+        <v>457</v>
       </c>
       <c r="D9">
-        <v>8905</v>
+        <v>24030</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>346</v>
+        <v>458</v>
       </c>
       <c r="F9" t="s">
-        <v>347</v>
+        <v>459</v>
       </c>
       <c r="G9" t="s">
-        <v>342</v>
+        <v>155</v>
       </c>
       <c r="H9" t="s">
-        <v>348</v>
+        <v>460</v>
       </c>
       <c r="I9" t="s">
-        <v>163</v>
+        <v>394</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>86185</v>
+        <v>86187</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D10">
-        <v>9276</v>
+        <v>25357</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H10" t="s">
         <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>86474</v>
+        <v>86235</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D11">
-        <v>9359</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>368</v>
+        <v>261</v>
+      </c>
+      <c r="D11" s="4">
+        <v>37719</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="F11" t="s">
-        <v>347</v>
-      </c>
-      <c r="G11" t="s">
-        <v>369</v>
-      </c>
-      <c r="H11" t="s">
-        <v>343</v>
+        <v>5</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>366</v>
+        <v>264</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>86180</v>
+        <v>86255</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c r="D12">
-        <v>9518</v>
+        <v>37850</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>173</v>
+        <v>295</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>296</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="H12" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="I12" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>167</v>
+        <v>297</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>86580</v>
+        <v>86225</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>433</v>
+        <v>235</v>
       </c>
       <c r="D13">
-        <v>10618</v>
+        <v>71748</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>434</v>
+        <v>236</v>
       </c>
       <c r="F13" t="s">
-        <v>435</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>436</v>
+        <v>155</v>
       </c>
       <c r="H13" t="s">
-        <v>331</v>
+        <v>214</v>
       </c>
       <c r="I13" t="s">
-        <v>437</v>
+        <v>198</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="K13" t="s">
-        <v>73</v>
+        <v>237</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>86230</v>
+        <v>86237</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D14">
-        <v>14500</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>251</v>
+        <v>265</v>
+      </c>
+      <c r="D14" s="4">
+        <v>79184</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
-      <c r="G14" t="s">
-        <v>155</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>86250</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15">
+        <v>2189</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" t="s">
+        <v>647</v>
+      </c>
+      <c r="G15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H15" t="s">
         <v>252</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>247</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>86600</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="D15">
-        <v>24030</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="F15" t="s">
-        <v>459</v>
-      </c>
-      <c r="G15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" t="s">
-        <v>460</v>
-      </c>
-      <c r="I15" t="s">
-        <v>394</v>
-      </c>
       <c r="J15" s="6" t="s">
-        <v>354</v>
+        <v>215</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16">
-        <v>86187</v>
+        <v>86499</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>205</v>
+        <v>392</v>
       </c>
       <c r="D16">
-        <v>25357</v>
+        <v>18128</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>5</v>
+        <v>393</v>
+      </c>
+      <c r="F16" t="s">
+        <v>193</v>
       </c>
       <c r="G16" t="s">
-        <v>202</v>
+        <v>342</v>
       </c>
       <c r="H16" t="s">
-        <v>162</v>
+        <v>331</v>
       </c>
       <c r="I16" t="s">
-        <v>222</v>
+        <v>394</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>14</v>
+        <v>366</v>
+      </c>
+      <c r="K16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>86305</v>
+        <v>86249</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="D17">
-        <v>30361</v>
+        <v>1876</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="F17" t="s">
-        <v>328</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
         <v>155</v>
       </c>
       <c r="H17" t="s">
-        <v>331</v>
+        <v>219</v>
       </c>
       <c r="I17" t="s">
-        <v>332</v>
+        <v>274</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>333</v>
+        <v>249</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>86235</v>
+        <v>86563</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D18" s="4">
-        <v>37719</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>262</v>
+        <v>415</v>
+      </c>
+      <c r="D18">
+        <v>6527</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>263</v>
+        <v>350</v>
+      </c>
+      <c r="G18" t="s">
+        <v>417</v>
+      </c>
+      <c r="H18" t="s">
+        <v>329</v>
       </c>
       <c r="I18" t="s">
-        <v>247</v>
+        <v>394</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>264</v>
+        <v>354</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>86255</v>
+      <c r="B19" s="10">
+        <v>86633</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>294</v>
+        <v>467</v>
       </c>
       <c r="D19">
-        <v>37850</v>
+        <v>9546</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>295</v>
+        <v>468</v>
       </c>
       <c r="F19" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="G19" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="H19" t="s">
-        <v>214</v>
+        <v>343</v>
       </c>
       <c r="I19" t="s">
-        <v>247</v>
+        <v>425</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>26</v>
+        <v>469</v>
+      </c>
+      <c r="K19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>86207</v>
+      <c r="B20" s="10">
+        <v>86601</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D20" s="4">
-        <v>67371</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>225</v>
+        <v>648</v>
+      </c>
+      <c r="D20">
+        <v>9834</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G20" t="s">
         <v>155</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>214</v>
+      <c r="H20" t="s">
+        <v>343</v>
       </c>
       <c r="I20" t="s">
-        <v>220</v>
+        <v>394</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>226</v>
+        <v>462</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>86192</v>
+        <v>86652</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" s="4">
-        <v>70377</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>212</v>
+        <v>473</v>
+      </c>
+      <c r="D21">
+        <v>13447</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>472</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>223</v>
+        <v>474</v>
+      </c>
+      <c r="G21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" t="s">
+        <v>475</v>
+      </c>
+      <c r="I21" t="s">
+        <v>394</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>227</v>
+        <v>354</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22">
-        <v>86225</v>
+        <v>86561</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>235</v>
+        <v>410</v>
       </c>
       <c r="D22">
-        <v>71748</v>
+        <v>14265</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>236</v>
+        <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>364</v>
       </c>
       <c r="G22" t="s">
         <v>155</v>
       </c>
       <c r="H22" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>394</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>11</v>
+        <v>354</v>
+      </c>
+      <c r="K22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>86237</v>
+        <v>86581</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D23" s="4">
-        <v>79184</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>266</v>
+        <v>439</v>
+      </c>
+      <c r="D23">
+        <v>14503</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I23" s="4"/>
+        <v>364</v>
+      </c>
+      <c r="G23" t="s">
+        <v>342</v>
+      </c>
+      <c r="H23" t="s">
+        <v>343</v>
+      </c>
+      <c r="I23" t="s">
+        <v>425</v>
+      </c>
       <c r="J23" s="6" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24">
-        <v>86250</v>
+        <v>86602</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>276</v>
+        <v>463</v>
       </c>
       <c r="D24">
-        <v>2189</v>
+        <v>15842</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>277</v>
+        <v>464</v>
       </c>
       <c r="F24" t="s">
-        <v>648</v>
+        <v>465</v>
       </c>
       <c r="G24" t="s">
-        <v>231</v>
+        <v>466</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>331</v>
       </c>
       <c r="I24" t="s">
-        <v>247</v>
+        <v>394</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>215</v>
+        <v>354</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25">
-        <v>86718</v>
+        <v>86233</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>492</v>
+        <v>254</v>
       </c>
       <c r="D25">
-        <v>86528</v>
+        <v>16021</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>494</v>
+        <v>255</v>
       </c>
       <c r="F25" t="s">
-        <v>296</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>493</v>
+        <v>256</v>
       </c>
       <c r="H25" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="I25" t="s">
-        <v>385</v>
+        <v>247</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>448</v>
+        <v>156</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>86208</v>
+        <v>86500</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>229</v>
+        <v>395</v>
       </c>
       <c r="D26">
-        <v>3698</v>
+        <v>20991</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>230</v>
+        <v>396</v>
       </c>
       <c r="F26" t="s">
-        <v>193</v>
+        <v>350</v>
       </c>
       <c r="G26" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="H26" t="s">
-        <v>232</v>
+        <v>343</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>394</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>234</v>
+        <v>397</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27">
-        <v>86184</v>
+        <v>86238</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="D27">
-        <v>7726</v>
+        <v>37720</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="F27" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="I27" t="s">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>86182</v>
+        <v>86228</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="D28">
-        <v>10531</v>
+        <v>45278</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="H28" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>86499</v>
+        <v>86234</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>392</v>
+        <v>258</v>
       </c>
       <c r="D29">
-        <v>18128</v>
+        <v>62255</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>393</v>
+        <v>259</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="G29" t="s">
-        <v>342</v>
+        <v>155</v>
       </c>
       <c r="H29" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="I29" t="s">
-        <v>394</v>
+        <v>247</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="K29" t="s">
-        <v>59</v>
+        <v>156</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>86074</v>
+        <v>86181</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D30">
-        <v>20335</v>
+        <v>5966</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>651</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H30" t="s">
-        <v>171</v>
+        <v>175</v>
+      </c>
+      <c r="I30" t="s">
+        <v>198</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>86186</v>
+        <v>86191</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D31">
-        <v>20092</v>
+        <v>8427</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="H31" t="s">
-        <v>171</v>
+        <v>175</v>
+      </c>
+      <c r="I31" t="s">
+        <v>206</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>86226</v>
+        <v>86583</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D32">
-        <v>77914</v>
+        <v>441</v>
+      </c>
+      <c r="D32" s="2">
+        <v>53903</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>239</v>
+        <v>442</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" t="s">
-        <v>240</v>
-      </c>
-      <c r="H32" t="s">
-        <v>241</v>
+        <v>443</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I32" t="s">
+        <v>425</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>156</v>
+        <v>354</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>86227</v>
+        <v>86253</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="D33">
-        <v>39131</v>
+        <v>37843</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>660</v>
       </c>
       <c r="G33" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="H33" t="s">
-        <v>219</v>
+        <v>288</v>
+      </c>
+      <c r="I33" t="s">
+        <v>198</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>245</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <v>86300</v>
+      <c r="B34" s="2">
+        <v>86299</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D34">
-        <v>7388</v>
+        <v>303</v>
+      </c>
+      <c r="D34" s="2">
+        <v>7385</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F34" t="s">
-        <v>310</v>
-      </c>
-      <c r="G34" t="s">
-        <v>213</v>
-      </c>
-      <c r="H34" t="s">
-        <v>214</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>86301</v>
+        <v>86303</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="D35">
-        <v>7079</v>
+        <v>7055</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G35" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="H35" t="s">
-        <v>315</v>
+        <v>329</v>
+      </c>
+      <c r="I35" t="s">
+        <v>198</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>86306</v>
+        <v>86501</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>334</v>
+        <v>398</v>
       </c>
       <c r="D36">
-        <v>22043</v>
+        <v>28023</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>335</v>
+        <v>399</v>
       </c>
       <c r="F36" t="s">
-        <v>336</v>
+        <v>400</v>
       </c>
       <c r="G36" t="s">
         <v>155</v>
       </c>
       <c r="H36" t="s">
-        <v>337</v>
+        <v>343</v>
+      </c>
+      <c r="I36" t="s">
+        <v>394</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -5696,606 +5728,627 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>86477</v>
+        <v>86564</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="D37">
-        <v>16204</v>
+        <v>4594</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="F37" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G37" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H37" t="s">
-        <v>329</v>
+        <v>352</v>
+      </c>
+      <c r="I37" t="s">
+        <v>394</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10">
-        <v>86562</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="D38" s="10">
-        <v>16353</v>
+      <c r="B38">
+        <v>86565</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D38">
+        <v>21332</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="F38" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="G38" t="s">
-        <v>369</v>
+        <v>155</v>
       </c>
       <c r="H38" t="s">
-        <v>329</v>
+        <v>331</v>
+      </c>
+      <c r="I38" t="s">
+        <v>421</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39">
-        <v>86578</v>
+        <v>86577</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D39">
-        <v>22042</v>
+        <v>7209</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F39" t="s">
-        <v>336</v>
+        <v>400</v>
       </c>
       <c r="G39" t="s">
         <v>155</v>
       </c>
       <c r="H39" t="s">
-        <v>331</v>
+        <v>343</v>
+      </c>
+      <c r="I39" t="s">
+        <v>425</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40">
-        <v>86716</v>
+        <v>86579</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>488</v>
+        <v>429</v>
       </c>
       <c r="D40">
-        <v>77767</v>
+        <v>30782</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>489</v>
+        <v>430</v>
       </c>
       <c r="F40" t="s">
-        <v>490</v>
+        <v>358</v>
       </c>
       <c r="G40" t="s">
-        <v>155</v>
+        <v>431</v>
       </c>
       <c r="H40" t="s">
-        <v>331</v>
+        <v>343</v>
+      </c>
+      <c r="I40" t="s">
+        <v>394</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>491</v>
+        <v>432</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41">
-        <v>86720</v>
+        <v>86634</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="D41">
-        <v>4777</v>
+        <v>6031</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="F41" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="G41" t="s">
-        <v>500</v>
+        <v>365</v>
       </c>
       <c r="H41" t="s">
         <v>331</v>
       </c>
+      <c r="I41" t="s">
+        <v>394</v>
+      </c>
       <c r="J41" s="6" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42">
-        <v>86721</v>
+        <v>85460</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>502</v>
+        <v>153</v>
       </c>
       <c r="D42">
-        <v>13099</v>
+        <v>7051</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>503</v>
+        <v>154</v>
       </c>
       <c r="F42" t="s">
-        <v>336</v>
+        <v>25</v>
       </c>
       <c r="G42" t="s">
-        <v>504</v>
+        <v>155</v>
       </c>
       <c r="H42" t="s">
-        <v>331</v>
+        <v>161</v>
+      </c>
+      <c r="I42" t="s">
+        <v>159</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>505</v>
+        <v>167</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43">
-        <v>86729</v>
+        <v>86709</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="D43">
-        <v>2103</v>
+        <v>4319</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="F43" t="s">
-        <v>634</v>
+        <v>372</v>
       </c>
       <c r="G43" t="s">
-        <v>635</v>
+        <v>482</v>
       </c>
       <c r="H43" t="s">
-        <v>636</v>
+        <v>483</v>
+      </c>
+      <c r="I43" t="s">
+        <v>484</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>637</v>
+        <v>354</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>86249</v>
+        <v>86718</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>273</v>
+        <v>492</v>
       </c>
       <c r="D44">
-        <v>1876</v>
+        <v>86528</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>275</v>
+        <v>494</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c r="G44" t="s">
-        <v>155</v>
+        <v>493</v>
       </c>
       <c r="H44" t="s">
-        <v>219</v>
+        <v>331</v>
       </c>
       <c r="I44" t="s">
-        <v>274</v>
+        <v>385</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>249</v>
+        <v>448</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>86709</v>
+        <v>86558</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>480</v>
+        <v>407</v>
       </c>
       <c r="D45">
-        <v>4319</v>
+        <v>50436</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>481</v>
+        <v>408</v>
       </c>
       <c r="F45" t="s">
         <v>372</v>
       </c>
       <c r="G45" t="s">
-        <v>482</v>
+        <v>409</v>
       </c>
       <c r="H45" t="s">
-        <v>483</v>
+        <v>331</v>
       </c>
       <c r="I45" t="s">
-        <v>484</v>
+        <v>385</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>354</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>86563</v>
+        <v>86594</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="D46">
-        <v>6527</v>
+        <v>445</v>
+      </c>
+      <c r="D46" s="2">
+        <v>81236</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="F46" t="s">
-        <v>350</v>
-      </c>
-      <c r="G46" t="s">
-        <v>417</v>
-      </c>
-      <c r="H46" t="s">
-        <v>329</v>
+        <v>646</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>447</v>
       </c>
       <c r="I46" t="s">
-        <v>394</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>354</v>
+        <v>385</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>85460</v>
+        <v>86478</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>153</v>
+        <v>382</v>
       </c>
       <c r="D47">
-        <v>7051</v>
+        <v>19878</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>154</v>
+        <v>383</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
+        <v>384</v>
       </c>
       <c r="G47" t="s">
-        <v>155</v>
+        <v>359</v>
       </c>
       <c r="H47" t="s">
-        <v>161</v>
+        <v>329</v>
       </c>
       <c r="I47" t="s">
-        <v>159</v>
+        <v>386</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>167</v>
+        <v>377</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>86302</v>
+        <v>86715</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>318</v>
+        <v>485</v>
       </c>
       <c r="D48">
-        <v>9208</v>
+        <v>56344</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>322</v>
+        <v>486</v>
       </c>
       <c r="F48" t="s">
-        <v>319</v>
+        <v>400</v>
       </c>
       <c r="G48" t="s">
-        <v>320</v>
+        <v>487</v>
       </c>
       <c r="H48" t="s">
+        <v>331</v>
+      </c>
+      <c r="I48" t="s">
+        <v>386</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>86182</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49">
+        <v>10531</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>166</v>
+      </c>
+      <c r="H49" t="s">
+        <v>183</v>
+      </c>
+      <c r="I49" t="s">
+        <v>182</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>86208</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D50">
+        <v>3698</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50" t="s">
+        <v>231</v>
+      </c>
+      <c r="H50" t="s">
         <v>232</v>
       </c>
-      <c r="I48" t="s">
-        <v>321</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10">
-        <v>86633</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D49">
-        <v>9546</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="F49" t="s">
-        <v>350</v>
-      </c>
-      <c r="G49" t="s">
-        <v>155</v>
-      </c>
-      <c r="H49" t="s">
-        <v>343</v>
-      </c>
-      <c r="I49" t="s">
-        <v>425</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="K49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="10">
-        <v>86601</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D50">
-        <v>9834</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="F50" t="s">
-        <v>350</v>
-      </c>
-      <c r="G50" t="s">
-        <v>155</v>
-      </c>
-      <c r="H50" t="s">
-        <v>343</v>
-      </c>
       <c r="I50" t="s">
-        <v>394</v>
+        <v>233</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>462</v>
+        <v>234</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51">
-        <v>86431</v>
+        <v>86476</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>660</v>
+        <v>374</v>
       </c>
       <c r="D51">
-        <v>9989</v>
+        <v>21437</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="F51" t="s">
-        <v>364</v>
+        <v>657</v>
       </c>
       <c r="G51" t="s">
-        <v>365</v>
+        <v>155</v>
       </c>
       <c r="H51" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="I51" t="s">
         <v>163</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52">
-        <v>85461</v>
+        <v>86307</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>157</v>
+        <v>339</v>
       </c>
       <c r="D52">
-        <v>9999</v>
+        <v>7863</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
+        <v>341</v>
       </c>
       <c r="G52" t="s">
-        <v>166</v>
+        <v>342</v>
       </c>
       <c r="H52" t="s">
-        <v>162</v>
+        <v>343</v>
       </c>
       <c r="I52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>167</v>
+        <v>344</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53">
-        <v>86183</v>
+        <v>86310</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>185</v>
+        <v>345</v>
       </c>
       <c r="D53">
-        <v>10044</v>
+        <v>8905</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>186</v>
+        <v>346</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
+        <v>347</v>
       </c>
       <c r="G53" t="s">
-        <v>187</v>
+        <v>342</v>
       </c>
       <c r="H53" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="I53" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>190</v>
+        <v>349</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54">
-        <v>86598</v>
+        <v>86474</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="D54" s="12">
-        <v>12717</v>
+        <v>367</v>
+      </c>
+      <c r="D54">
+        <v>9359</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>452</v>
+        <v>368</v>
       </c>
       <c r="F54" t="s">
-        <v>364</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>456</v>
+        <v>347</v>
+      </c>
+      <c r="G54" t="s">
+        <v>369</v>
+      </c>
+      <c r="H54" t="s">
+        <v>343</v>
+      </c>
+      <c r="I54" t="s">
+        <v>163</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55">
-        <v>86652</v>
+        <v>86180</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>473</v>
+        <v>172</v>
       </c>
       <c r="D55">
-        <v>13447</v>
+        <v>9518</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>472</v>
+        <v>173</v>
       </c>
       <c r="F55" t="s">
-        <v>474</v>
+        <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H55" t="s">
-        <v>475</v>
+        <v>175</v>
       </c>
       <c r="I55" t="s">
-        <v>394</v>
+        <v>163</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>354</v>
+        <v>167</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56">
-        <v>86561</v>
+        <v>86305</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>410</v>
+        <v>326</v>
       </c>
       <c r="D56">
-        <v>14265</v>
+        <v>30361</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>411</v>
+        <v>327</v>
       </c>
       <c r="F56" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="G56" t="s">
         <v>155</v>
@@ -6304,871 +6357,864 @@
         <v>331</v>
       </c>
       <c r="I56" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="K56" t="s">
-        <v>65</v>
+        <v>333</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57">
-        <v>86581</v>
+        <v>86207</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="D57">
-        <v>14503</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>440</v>
+        <v>224</v>
+      </c>
+      <c r="D57" s="4">
+        <v>67371</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="F57" t="s">
-        <v>364</v>
-      </c>
-      <c r="G57" t="s">
-        <v>342</v>
-      </c>
-      <c r="H57" t="s">
-        <v>343</v>
+        <v>5</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="I57" t="s">
-        <v>425</v>
+        <v>220</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>354</v>
+        <v>226</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58">
-        <v>86602</v>
+        <v>86184</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>463</v>
+        <v>191</v>
       </c>
       <c r="D58">
-        <v>15842</v>
+        <v>7726</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>464</v>
+        <v>192</v>
       </c>
       <c r="F58" t="s">
-        <v>465</v>
+        <v>193</v>
       </c>
       <c r="G58" t="s">
-        <v>466</v>
+        <v>166</v>
       </c>
       <c r="H58" t="s">
-        <v>331</v>
+        <v>175</v>
       </c>
       <c r="I58" t="s">
-        <v>394</v>
+        <v>164</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>354</v>
+        <v>194</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59">
-        <v>86233</v>
+        <v>86302</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="D59">
-        <v>16021</v>
+        <v>9208</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
+        <v>319</v>
       </c>
       <c r="G59" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="H59" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="I59" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60">
-        <v>86498</v>
+        <v>86431</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>387</v>
+        <v>659</v>
       </c>
       <c r="D60">
-        <v>16314</v>
+        <v>9989</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="F60" t="s">
         <v>364</v>
       </c>
       <c r="G60" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="H60" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="I60" t="s">
         <v>163</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61">
-        <v>86475</v>
+        <v>85461</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>370</v>
+        <v>157</v>
       </c>
       <c r="D61">
-        <v>17052</v>
+        <v>9999</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>371</v>
+        <v>165</v>
       </c>
       <c r="F61" t="s">
-        <v>372</v>
+        <v>25</v>
       </c>
       <c r="G61" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="H61" t="s">
-        <v>343</v>
+        <v>162</v>
       </c>
       <c r="I61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>373</v>
+        <v>167</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62">
-        <v>86500</v>
+        <v>86183</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>395</v>
+        <v>185</v>
       </c>
       <c r="D62">
-        <v>20991</v>
+        <v>10044</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>396</v>
+        <v>186</v>
       </c>
       <c r="F62" t="s">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="G62" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="H62" t="s">
-        <v>343</v>
+        <v>188</v>
       </c>
       <c r="I62" t="s">
-        <v>394</v>
+        <v>189</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>397</v>
+        <v>190</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63">
-        <v>86254</v>
+        <v>86598</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D63">
-        <v>33786</v>
+        <v>451</v>
+      </c>
+      <c r="D63" s="12">
+        <v>12717</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>290</v>
+        <v>452</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" t="s">
-        <v>291</v>
-      </c>
-      <c r="H63" t="s">
-        <v>292</v>
-      </c>
-      <c r="I63" t="s">
-        <v>280</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>293</v>
+        <v>364</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>456</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64">
-        <v>86385</v>
+        <v>86498</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="D64">
-        <v>35039</v>
+        <v>16314</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="F64" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="G64" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="H64" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="I64" t="s">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>362</v>
+        <v>391</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65">
-        <v>86238</v>
+        <v>86475</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>269</v>
+        <v>370</v>
       </c>
       <c r="D65">
-        <v>37720</v>
+        <v>17052</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>270</v>
+        <v>371</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>372</v>
       </c>
       <c r="G65" t="s">
         <v>155</v>
       </c>
       <c r="H65" t="s">
-        <v>232</v>
+        <v>343</v>
       </c>
       <c r="I65" t="s">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>272</v>
+        <v>373</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66">
-        <v>86251</v>
+        <v>86254</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D66">
-        <v>37829</v>
+        <v>33786</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="F66" t="s">
         <v>25</v>
       </c>
       <c r="G66" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="H66" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="I66" t="s">
         <v>280</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67">
-        <v>86503</v>
+        <v>86251</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>404</v>
+        <v>278</v>
       </c>
       <c r="D67">
-        <v>44175</v>
+        <v>37829</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>405</v>
+        <v>279</v>
       </c>
       <c r="F67" t="s">
-        <v>623</v>
+        <v>25</v>
       </c>
       <c r="G67" t="s">
         <v>155</v>
       </c>
       <c r="H67" t="s">
-        <v>343</v>
+        <v>232</v>
+      </c>
+      <c r="I67" t="s">
+        <v>280</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>406</v>
+        <v>215</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68">
-        <v>86228</v>
+        <v>86503</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>246</v>
+        <v>404</v>
       </c>
       <c r="D68">
-        <v>45278</v>
+        <v>44175</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>248</v>
+        <v>405</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
+        <v>622</v>
       </c>
       <c r="G68" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="H68" t="s">
-        <v>214</v>
+        <v>343</v>
       </c>
       <c r="I68" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69">
-        <v>86558</v>
+        <v>86252</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>407</v>
+        <v>281</v>
       </c>
       <c r="D69">
-        <v>50436</v>
+        <v>37833</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>408</v>
+        <v>282</v>
       </c>
       <c r="F69" t="s">
-        <v>372</v>
+        <v>656</v>
       </c>
       <c r="G69" t="s">
-        <v>409</v>
+        <v>283</v>
       </c>
       <c r="H69" t="s">
-        <v>331</v>
+        <v>284</v>
+      </c>
+      <c r="I69" t="s">
+        <v>164</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>354</v>
+        <v>156</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70">
-        <v>86234</v>
+        <v>86193</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="D70">
-        <v>62255</v>
+        <v>44753</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F70" t="s">
-        <v>260</v>
+        <v>217</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="H70" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="I70" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71">
-        <v>86594</v>
+        <v>86430</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="D71" s="2">
-        <v>81236</v>
+        <v>356</v>
+      </c>
+      <c r="D71">
+        <v>7708</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>446</v>
+        <v>357</v>
       </c>
       <c r="F71" t="s">
-        <v>647</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="I71" s="12"/>
-      <c r="J71" s="14" t="s">
-        <v>448</v>
+        <v>358</v>
+      </c>
+      <c r="G71" t="s">
+        <v>359</v>
+      </c>
+      <c r="H71" t="s">
+        <v>331</v>
+      </c>
+      <c r="I71" t="s">
+        <v>163</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72">
-        <v>86252</v>
+        <v>86192</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D72">
-        <v>37833</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>282</v>
+        <v>211</v>
+      </c>
+      <c r="D72" s="4">
+        <v>70377</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="F72" t="s">
-        <v>657</v>
-      </c>
-      <c r="G72" t="s">
-        <v>283</v>
-      </c>
-      <c r="H72" t="s">
-        <v>284</v>
+        <v>5</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73">
-        <v>86181</v>
+        <v>86385</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>177</v>
+        <v>361</v>
       </c>
       <c r="D73">
-        <v>5966</v>
+        <v>35039</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>176</v>
+        <v>355</v>
       </c>
       <c r="F73" t="s">
-        <v>652</v>
+        <v>350</v>
       </c>
       <c r="G73" t="s">
-        <v>178</v>
+        <v>351</v>
       </c>
       <c r="H73" t="s">
-        <v>175</v>
+        <v>352</v>
+      </c>
+      <c r="I73" t="s">
+        <v>353</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>17</v>
+        <v>354</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74">
-        <v>86191</v>
+        <v>86719</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>209</v>
+        <v>677</v>
       </c>
       <c r="D74">
-        <v>8427</v>
+        <v>201</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>210</v>
+        <v>495</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>341</v>
       </c>
       <c r="G74" t="s">
-        <v>155</v>
+        <v>496</v>
       </c>
       <c r="H74" t="s">
-        <v>175</v>
-      </c>
-      <c r="I74" t="s">
-        <v>206</v>
+        <v>447</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>207</v>
+        <v>497</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>208</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75">
-        <v>86193</v>
+        <v>86074</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="D75">
-        <v>44753</v>
+        <v>20335</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>22</v>
+        <v>169</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="H75" t="s">
-        <v>219</v>
-      </c>
-      <c r="I75" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76">
-        <v>86583</v>
+        <v>86186</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="D76" s="2">
-        <v>53903</v>
+        <v>200</v>
+      </c>
+      <c r="D76">
+        <v>20092</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>442</v>
+        <v>201</v>
       </c>
       <c r="F76" t="s">
-        <v>443</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="I76" t="s">
-        <v>425</v>
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
+        <v>202</v>
+      </c>
+      <c r="H76" t="s">
+        <v>171</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>354</v>
+        <v>203</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77">
-        <v>86253</v>
+        <v>86226</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="D77">
-        <v>37843</v>
+        <v>77914</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="F77" t="s">
-        <v>661</v>
+        <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="H77" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>272</v>
+        <v>156</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="2">
-        <v>86299</v>
+      <c r="B78">
+        <v>86227</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D78" s="2">
-        <v>7385</v>
+        <v>242</v>
+      </c>
+      <c r="D78">
+        <v>39131</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>304</v>
+        <v>243</v>
       </c>
       <c r="F78" t="s">
-        <v>305</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>307</v>
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>244</v>
+      </c>
+      <c r="H78" t="s">
+        <v>219</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>41</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79">
-        <v>86303</v>
+        <v>86300</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D79">
-        <v>7055</v>
+        <v>7388</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="F79" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G79" t="s">
-        <v>325</v>
+        <v>213</v>
       </c>
       <c r="H79" t="s">
-        <v>329</v>
+        <v>214</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80">
-        <v>86430</v>
+        <v>86301</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="D80">
-        <v>7708</v>
+        <v>7079</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="F80" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="G80" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="H80" t="s">
-        <v>331</v>
-      </c>
-      <c r="I80" t="s">
-        <v>163</v>
+        <v>315</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81">
-        <v>86478</v>
+        <v>86306</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="D81">
-        <v>19878</v>
+        <v>22043</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="F81" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="G81" t="s">
-        <v>359</v>
+        <v>155</v>
       </c>
       <c r="H81" t="s">
-        <v>329</v>
-      </c>
-      <c r="I81" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82">
-        <v>86501</v>
+        <v>86477</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="D82">
-        <v>28023</v>
+        <v>16204</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="F82" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="G82" t="s">
-        <v>155</v>
+        <v>365</v>
       </c>
       <c r="H82" t="s">
-        <v>343</v>
-      </c>
-      <c r="I82" t="s">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83">
-        <v>86564</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D83">
-        <v>4594</v>
+      <c r="B83" s="10">
+        <v>86562</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D83" s="10">
+        <v>16353</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F83" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="G83" t="s">
         <v>369</v>
       </c>
       <c r="H83" t="s">
-        <v>352</v>
-      </c>
-      <c r="I83" t="s">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="J83" s="6" t="s">
         <v>354</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84">
-        <v>86565</v>
+        <v>86578</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D84">
-        <v>21332</v>
+        <v>22042</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F84" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="G84" t="s">
         <v>155</v>
@@ -7176,136 +7222,127 @@
       <c r="H84" t="s">
         <v>331</v>
       </c>
-      <c r="I84" t="s">
-        <v>421</v>
-      </c>
       <c r="J84" s="6" t="s">
         <v>360</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85">
-        <v>86577</v>
+        <v>86716</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>423</v>
+        <v>488</v>
       </c>
       <c r="D85">
-        <v>7209</v>
+        <v>77767</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>424</v>
+        <v>489</v>
       </c>
       <c r="F85" t="s">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="G85" t="s">
         <v>155</v>
       </c>
       <c r="H85" t="s">
-        <v>343</v>
-      </c>
-      <c r="I85" t="s">
-        <v>425</v>
+        <v>331</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>426</v>
+        <v>491</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86">
-        <v>86579</v>
+        <v>86720</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>429</v>
+        <v>498</v>
       </c>
       <c r="D86">
-        <v>30782</v>
+        <v>4777</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="F86" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="G86" t="s">
-        <v>431</v>
+        <v>499</v>
       </c>
       <c r="H86" t="s">
-        <v>343</v>
-      </c>
-      <c r="I86" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87">
-        <v>86634</v>
+        <v>86721</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="D87">
-        <v>6031</v>
+        <v>13099</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="F87" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="G87" t="s">
-        <v>365</v>
+        <v>503</v>
       </c>
       <c r="H87" t="s">
         <v>331</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88">
-        <v>86715</v>
+        <v>86729</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="D88">
-        <v>56344</v>
+        <v>2103</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="F88" t="s">
-        <v>400</v>
+        <v>633</v>
       </c>
       <c r="G88" t="s">
-        <v>487</v>
+        <v>634</v>
       </c>
       <c r="H88" t="s">
-        <v>331</v>
+        <v>635</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>432</v>
+        <v>636</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7700,55 +7737,56 @@
     </row>
     <row r="191" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H191" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E73" r:id="rId1"/>
-    <hyperlink ref="C73" r:id="rId2"/>
-    <hyperlink ref="C74" r:id="rId3"/>
-    <hyperlink ref="E74" r:id="rId4"/>
-    <hyperlink ref="C75" r:id="rId5"/>
-    <hyperlink ref="E75" r:id="rId6"/>
-    <hyperlink ref="C70" r:id="rId7"/>
-    <hyperlink ref="E70" r:id="rId8"/>
-    <hyperlink ref="C72" r:id="rId9"/>
-    <hyperlink ref="E72" r:id="rId10"/>
-    <hyperlink ref="C77" r:id="rId11"/>
-    <hyperlink ref="E77" r:id="rId12"/>
-    <hyperlink ref="C78" r:id="rId13"/>
-    <hyperlink ref="E78" r:id="rId14"/>
-    <hyperlink ref="C79" r:id="rId15"/>
-    <hyperlink ref="E79" r:id="rId16"/>
-    <hyperlink ref="C80" r:id="rId17"/>
-    <hyperlink ref="E80" r:id="rId18"/>
-    <hyperlink ref="C81" r:id="rId19"/>
-    <hyperlink ref="E81" r:id="rId20"/>
-    <hyperlink ref="C82" r:id="rId21"/>
-    <hyperlink ref="E82" r:id="rId22"/>
-    <hyperlink ref="C83" r:id="rId23"/>
-    <hyperlink ref="E83" r:id="rId24"/>
-    <hyperlink ref="C84" r:id="rId25"/>
-    <hyperlink ref="E84" r:id="rId26"/>
-    <hyperlink ref="C85" r:id="rId27"/>
-    <hyperlink ref="E85" r:id="rId28"/>
-    <hyperlink ref="C86" r:id="rId29"/>
-    <hyperlink ref="E86" r:id="rId30"/>
-    <hyperlink ref="C76" r:id="rId31"/>
-    <hyperlink ref="E76" r:id="rId32"/>
-    <hyperlink ref="C71" r:id="rId33"/>
-    <hyperlink ref="E71" r:id="rId34"/>
-    <hyperlink ref="C87" r:id="rId35"/>
-    <hyperlink ref="E87" r:id="rId36"/>
-    <hyperlink ref="C88" r:id="rId37"/>
-    <hyperlink ref="E88" r:id="rId38"/>
+    <hyperlink ref="E30" r:id="rId1"/>
+    <hyperlink ref="C30" r:id="rId2"/>
+    <hyperlink ref="C31" r:id="rId3"/>
+    <hyperlink ref="E31" r:id="rId4"/>
+    <hyperlink ref="C70" r:id="rId5"/>
+    <hyperlink ref="E70" r:id="rId6"/>
+    <hyperlink ref="C29" r:id="rId7"/>
+    <hyperlink ref="E29" r:id="rId8"/>
+    <hyperlink ref="C69" r:id="rId9"/>
+    <hyperlink ref="E69" r:id="rId10"/>
+    <hyperlink ref="C33" r:id="rId11"/>
+    <hyperlink ref="E33" r:id="rId12"/>
+    <hyperlink ref="C34" r:id="rId13"/>
+    <hyperlink ref="E34" r:id="rId14"/>
+    <hyperlink ref="C35" r:id="rId15"/>
+    <hyperlink ref="E35" r:id="rId16"/>
+    <hyperlink ref="C71" r:id="rId17"/>
+    <hyperlink ref="E71" r:id="rId18"/>
+    <hyperlink ref="C47" r:id="rId19"/>
+    <hyperlink ref="E47" r:id="rId20"/>
+    <hyperlink ref="C36" r:id="rId21"/>
+    <hyperlink ref="E36" r:id="rId22"/>
+    <hyperlink ref="C37" r:id="rId23"/>
+    <hyperlink ref="E37" r:id="rId24"/>
+    <hyperlink ref="C38" r:id="rId25"/>
+    <hyperlink ref="E38" r:id="rId26"/>
+    <hyperlink ref="C39" r:id="rId27"/>
+    <hyperlink ref="E39" r:id="rId28"/>
+    <hyperlink ref="C40" r:id="rId29"/>
+    <hyperlink ref="E40" r:id="rId30"/>
+    <hyperlink ref="C32" r:id="rId31"/>
+    <hyperlink ref="E32" r:id="rId32"/>
+    <hyperlink ref="C46" r:id="rId33"/>
+    <hyperlink ref="E46" r:id="rId34"/>
+    <hyperlink ref="C41" r:id="rId35"/>
+    <hyperlink ref="E41" r:id="rId36"/>
+    <hyperlink ref="C48" r:id="rId37"/>
+    <hyperlink ref="E48" r:id="rId38"/>
+    <hyperlink ref="C74" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
   <tableParts count="1">
-    <tablePart r:id="rId40"/>
+    <tablePart r:id="rId41"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7757,8 +7795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7782,13 +7820,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -7814,13 +7852,13 @@
         <v>38142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D2">
         <v>7876</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F2" t="s">
         <v>296</v>
@@ -7829,13 +7867,13 @@
         <v>155</v>
       </c>
       <c r="H2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I2" t="s">
         <v>394</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>120</v>
@@ -7843,1590 +7881,1633 @@
     </row>
     <row r="3" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>38296</v>
+        <v>37886</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>610</v>
+        <v>551</v>
       </c>
       <c r="D3">
-        <v>69753</v>
+        <v>86074</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>611</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>296</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
         <v>155</v>
       </c>
       <c r="H3" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="I3" t="s">
-        <v>164</v>
+        <v>394</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>38299</v>
+        <v>38235</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="D4">
-        <v>78623</v>
+        <v>59281</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="F4" t="s">
-        <v>296</v>
+        <v>193</v>
       </c>
       <c r="G4" t="s">
         <v>155</v>
       </c>
       <c r="H4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>37886</v>
+        <v>38141</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>552</v>
+        <v>630</v>
       </c>
       <c r="D5">
-        <v>86074</v>
+        <v>68475</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>168</v>
+        <v>565</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
       <c r="G5" t="s">
         <v>155</v>
       </c>
       <c r="H5" t="s">
-        <v>509</v>
+        <v>562</v>
       </c>
       <c r="I5" t="s">
         <v>394</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>38235</v>
+        <v>38237</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>585</v>
+        <v>666</v>
       </c>
       <c r="D6">
-        <v>59281</v>
+        <v>34691</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="F6" t="s">
-        <v>193</v>
+        <v>590</v>
       </c>
       <c r="G6" t="s">
         <v>155</v>
       </c>
       <c r="H6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I6" t="s">
         <v>198</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>38141</v>
+        <v>38353</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D7">
-        <v>68475</v>
+        <v>6024</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>566</v>
+        <v>626</v>
       </c>
       <c r="F7" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="G7" t="s">
-        <v>155</v>
+        <v>619</v>
       </c>
       <c r="H7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I7" t="s">
-        <v>394</v>
+        <v>198</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>38282</v>
+        <v>38205</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="D8">
-        <v>71285</v>
+        <v>14622</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="G8" t="s">
         <v>155</v>
       </c>
       <c r="H8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>394</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>37719</v>
+        <v>37921</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>262</v>
+        <v>552</v>
       </c>
       <c r="D9">
-        <v>10925</v>
+        <v>14768</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="G9" t="s">
         <v>155</v>
       </c>
       <c r="H9" t="s">
+        <v>508</v>
+      </c>
+      <c r="I9" t="s">
+        <v>394</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>515</v>
+      <c r="K9" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>37720</v>
+        <v>38127</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>270</v>
+        <v>560</v>
       </c>
       <c r="D10">
-        <v>6002</v>
+        <v>17040</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>513</v>
+        <v>561</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="G10" t="s">
         <v>155</v>
       </c>
       <c r="H10" t="s">
+        <v>562</v>
+      </c>
+      <c r="I10" t="s">
+        <v>394</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>516</v>
+      <c r="K10" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>37721</v>
+        <v>38351</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>514</v>
+        <v>620</v>
       </c>
       <c r="D11">
-        <v>12961</v>
+        <v>21342</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>517</v>
+        <v>621</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>619</v>
       </c>
       <c r="H11" t="s">
-        <v>509</v>
+        <v>562</v>
+      </c>
+      <c r="I11" t="s">
+        <v>198</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12">
-        <v>37821</v>
+        <v>38206</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="D12">
-        <v>7708</v>
+        <v>21686</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>357</v>
+        <v>579</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="G12" t="s">
         <v>155</v>
       </c>
       <c r="H12" t="s">
-        <v>509</v>
+        <v>562</v>
+      </c>
+      <c r="I12" t="s">
+        <v>394</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13">
-        <v>37822</v>
+        <v>38234</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="D13">
-        <v>8650</v>
+        <v>32505</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>521</v>
+        <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="G13" t="s">
         <v>155</v>
       </c>
       <c r="H13" t="s">
-        <v>509</v>
+        <v>562</v>
+      </c>
+      <c r="I13" t="s">
+        <v>198</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>37829</v>
+        <v>38202</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>279</v>
+        <v>572</v>
       </c>
       <c r="D14">
-        <v>6030</v>
+        <v>45917</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>522</v>
+        <v>573</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="G14" t="s">
         <v>155</v>
       </c>
       <c r="H14" t="s">
+        <v>562</v>
+      </c>
+      <c r="I14" t="s">
+        <v>394</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>37833</v>
+        <v>38145</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>282</v>
+        <v>569</v>
       </c>
       <c r="D15">
-        <v>51184</v>
+        <v>52174</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>570</v>
+      </c>
+      <c r="F15" t="s">
+        <v>260</v>
       </c>
       <c r="G15" t="s">
         <v>155</v>
       </c>
       <c r="H15" t="s">
+        <v>562</v>
+      </c>
+      <c r="I15" t="s">
+        <v>394</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>99</v>
+      <c r="K15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16">
-        <v>37843</v>
+        <v>38352</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>286</v>
+        <v>623</v>
       </c>
       <c r="D16">
-        <v>55149</v>
+        <v>67964</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>528</v>
+        <v>624</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="G16" t="s">
-        <v>155</v>
+        <v>619</v>
       </c>
       <c r="H16" t="s">
-        <v>509</v>
+        <v>562</v>
+      </c>
+      <c r="I16" t="s">
+        <v>198</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>37</v>
+        <v>580</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>37844</v>
+        <v>38238</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>662</v>
+        <v>591</v>
       </c>
       <c r="D17">
-        <v>33786</v>
+        <v>68979</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="G17" t="s">
         <v>155</v>
       </c>
       <c r="H17" t="s">
-        <v>509</v>
+        <v>562</v>
+      </c>
+      <c r="I17" t="s">
+        <v>198</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>27</v>
+        <v>580</v>
+      </c>
+      <c r="K17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18">
-        <v>37845</v>
+        <v>38201</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="D18">
-        <v>35602</v>
+        <v>70172</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>530</v>
+        <v>571</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="G18" t="s">
         <v>155</v>
       </c>
       <c r="H18" t="s">
+        <v>562</v>
+      </c>
+      <c r="I18" t="s">
+        <v>394</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>37847</v>
+        <v>37842</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>663</v>
+        <v>526</v>
       </c>
       <c r="D19">
-        <v>15083</v>
+        <v>86193</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>533</v>
+        <v>216</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
         <v>155</v>
       </c>
       <c r="H19" t="s">
+        <v>508</v>
+      </c>
+      <c r="I19" t="s">
+        <v>394</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>37848</v>
+        <v>37846</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D20">
-        <v>49813</v>
+        <v>48665</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
         <v>155</v>
       </c>
       <c r="H20" t="s">
+        <v>508</v>
+      </c>
+      <c r="I20" t="s">
+        <v>394</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="K20" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>37850</v>
+        <v>37830</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>295</v>
+        <v>667</v>
       </c>
       <c r="D21">
-        <v>2189</v>
+        <v>11743</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>277</v>
+        <v>522</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="G21" t="s">
         <v>155</v>
       </c>
       <c r="H21" t="s">
+        <v>508</v>
+      </c>
+      <c r="I21" t="s">
+        <v>484</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22">
-        <v>37851</v>
+        <v>38361</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>536</v>
+        <v>627</v>
       </c>
       <c r="D22">
-        <v>66197</v>
+        <v>22340</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>537</v>
+        <v>632</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>619</v>
       </c>
       <c r="H22" t="s">
-        <v>509</v>
+        <v>562</v>
+      </c>
+      <c r="I22" t="s">
+        <v>385</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>104</v>
+        <v>580</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>37852</v>
+        <v>37831</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>665</v>
+        <v>523</v>
       </c>
       <c r="D23">
-        <v>16021</v>
+        <v>44473</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
+        <v>524</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>649</v>
       </c>
       <c r="G23" t="s">
         <v>155</v>
       </c>
       <c r="H23" t="s">
+        <v>508</v>
+      </c>
+      <c r="I23" t="s">
+        <v>678</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24">
-        <v>37862</v>
+        <v>38296</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>538</v>
+        <v>609</v>
       </c>
       <c r="D24">
-        <v>53733</v>
+        <v>69753</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>539</v>
+        <v>610</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>296</v>
       </c>
       <c r="G24" t="s">
         <v>155</v>
       </c>
       <c r="H24" t="s">
-        <v>509</v>
+        <v>562</v>
+      </c>
+      <c r="I24" t="s">
+        <v>164</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25">
-        <v>37863</v>
+        <v>38299</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>540</v>
+        <v>611</v>
       </c>
       <c r="D25">
-        <v>62255</v>
+        <v>78623</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>259</v>
+        <v>612</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>296</v>
       </c>
       <c r="G25" t="s">
         <v>155</v>
       </c>
       <c r="H25" t="s">
-        <v>509</v>
+        <v>562</v>
+      </c>
+      <c r="I25" t="s">
+        <v>164</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>37864</v>
+        <v>38282</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="D26">
-        <v>56871</v>
+        <v>71285</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
         <v>155</v>
       </c>
       <c r="H26" t="s">
-        <v>509</v>
+        <v>562</v>
+      </c>
+      <c r="I26" t="s">
+        <v>164</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27">
-        <v>37865</v>
+        <v>37171</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="D27">
-        <v>52654</v>
+        <v>21834</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
         <v>155</v>
       </c>
       <c r="H27" t="s">
+        <v>508</v>
+      </c>
+      <c r="I27" t="s">
+        <v>163</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="K27" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>37866</v>
+        <v>38301</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="D28">
-        <v>79184</v>
+        <v>21835</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>546</v>
+        <v>616</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
         <v>155</v>
       </c>
       <c r="H28" t="s">
-        <v>509</v>
+        <v>562</v>
+      </c>
+      <c r="I28" t="s">
+        <v>164</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>37867</v>
+        <v>37722</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>547</v>
+        <v>668</v>
       </c>
       <c r="D29">
-        <v>1876</v>
+        <v>35466</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>275</v>
+        <v>517</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
         <v>155</v>
       </c>
       <c r="H29" t="s">
+        <v>508</v>
+      </c>
+      <c r="I29" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="K29" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>37869</v>
+        <v>38269</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>548</v>
+        <v>601</v>
       </c>
       <c r="D30">
-        <v>2189</v>
+        <v>50271</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>277</v>
+        <v>602</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="G30" t="s">
         <v>155</v>
       </c>
       <c r="H30" t="s">
+        <v>562</v>
+      </c>
+      <c r="I30" t="s">
+        <v>164</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="K30" s="1" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>37870</v>
+      <c r="B31" s="2">
+        <v>38216</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D31">
-        <v>78089</v>
+        <v>581</v>
+      </c>
+      <c r="D31" s="2">
+        <v>54249</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>109</v>
+      <c r="K31" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>37885</v>
+        <v>38268</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="D32">
-        <v>86181</v>
+        <v>599</v>
+      </c>
+      <c r="D32" s="2">
+        <v>70141</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>551</v>
+        <v>600</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="K32" s="1" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>37922</v>
+        <v>38350</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="D33">
-        <v>14772</v>
+        <v>34212</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="F33" t="s">
-        <v>310</v>
+        <v>649</v>
       </c>
       <c r="G33" t="s">
-        <v>155</v>
+        <v>619</v>
       </c>
       <c r="H33" t="s">
-        <v>509</v>
+        <v>562</v>
+      </c>
+      <c r="I33" t="s">
+        <v>164</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>37923</v>
+        <v>38300</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>557</v>
+        <v>613</v>
       </c>
       <c r="D34">
-        <v>23421</v>
+        <v>52216</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>558</v>
+        <v>614</v>
       </c>
       <c r="F34" t="s">
-        <v>310</v>
+        <v>669</v>
       </c>
       <c r="G34" t="s">
         <v>155</v>
       </c>
       <c r="H34" t="s">
-        <v>509</v>
+        <v>562</v>
+      </c>
+      <c r="I34" t="s">
+        <v>164</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>37925</v>
+        <v>37719</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>559</v>
+        <v>262</v>
       </c>
       <c r="D35">
-        <v>13068</v>
+        <v>10925</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>560</v>
+        <v>511</v>
       </c>
       <c r="F35" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="G35" t="s">
         <v>155</v>
       </c>
       <c r="H35" t="s">
+        <v>508</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>116</v>
+      <c r="K35" s="15" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>38140</v>
+        <v>37720</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>564</v>
+        <v>270</v>
       </c>
       <c r="D36">
-        <v>47301</v>
+        <v>6002</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>565</v>
+        <v>512</v>
       </c>
       <c r="F36" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="G36" t="s">
         <v>155</v>
       </c>
       <c r="H36" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>118</v>
+        <v>509</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
-        <v>38144</v>
+      <c r="B37">
+        <v>37721</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>651</v>
+        <v>513</v>
       </c>
       <c r="D37">
-        <v>20420</v>
+        <v>12961</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>569</v>
+        <v>516</v>
       </c>
       <c r="F37" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
         <v>155</v>
       </c>
       <c r="H37" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38">
-        <v>38203</v>
+        <v>37821</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="D38">
-        <v>57610</v>
+        <v>7708</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>576</v>
+        <v>357</v>
       </c>
       <c r="F38" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="G38" t="s">
         <v>155</v>
       </c>
       <c r="H38" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39">
-        <v>38236</v>
+        <v>37822</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>588</v>
+        <v>519</v>
       </c>
       <c r="D39">
-        <v>58377</v>
+        <v>8650</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>589</v>
+        <v>520</v>
       </c>
       <c r="F39" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="G39" t="s">
         <v>155</v>
       </c>
       <c r="H39" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40">
-        <v>38265</v>
+        <v>37829</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="D40" s="2">
-        <v>60980</v>
+        <v>279</v>
+      </c>
+      <c r="D40">
+        <v>6030</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>595</v>
+        <v>521</v>
       </c>
       <c r="F40" t="s">
-        <v>310</v>
-      </c>
-      <c r="G40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
         <v>155</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="7" t="s">
-        <v>510</v>
+      <c r="H40" t="s">
+        <v>508</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>509</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41">
-        <v>38266</v>
+        <v>37833</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>596</v>
+        <v>282</v>
       </c>
       <c r="D41">
-        <v>53220</v>
+        <v>51184</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="F41" t="s">
-        <v>310</v>
+        <v>525</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G41" t="s">
         <v>155</v>
       </c>
       <c r="H41" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42">
-        <v>38267</v>
+        <v>37843</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="D42" s="2">
-        <v>54955</v>
+        <v>286</v>
+      </c>
+      <c r="D42">
+        <v>55149</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>599</v>
+        <v>527</v>
       </c>
       <c r="F42" t="s">
-        <v>310</v>
-      </c>
-      <c r="G42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
         <v>155</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="K42" t="s">
-        <v>136</v>
+      <c r="H42" t="s">
+        <v>508</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43">
-        <v>38293</v>
+        <v>37844</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>606</v>
+        <v>661</v>
       </c>
       <c r="D43">
-        <v>64251</v>
+        <v>33786</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>607</v>
+        <v>528</v>
       </c>
       <c r="F43" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="G43" t="s">
         <v>155</v>
       </c>
       <c r="H43" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>38294</v>
+        <v>37845</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>608</v>
+        <v>663</v>
       </c>
       <c r="D44">
-        <v>23789</v>
+        <v>35602</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>609</v>
+        <v>529</v>
       </c>
       <c r="F44" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="G44" t="s">
         <v>155</v>
       </c>
       <c r="H44" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>38237</v>
+        <v>37847</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D45">
-        <v>34691</v>
+        <v>15083</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>590</v>
+        <v>532</v>
       </c>
       <c r="F45" t="s">
-        <v>591</v>
+        <v>9</v>
       </c>
       <c r="G45" t="s">
         <v>155</v>
       </c>
       <c r="H45" t="s">
-        <v>563</v>
-      </c>
-      <c r="I45" t="s">
-        <v>198</v>
+        <v>508</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>38353</v>
+        <v>37848</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>626</v>
+        <v>533</v>
       </c>
       <c r="D46">
-        <v>6024</v>
+        <v>49813</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>627</v>
+        <v>534</v>
       </c>
       <c r="F46" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>620</v>
+        <v>155</v>
       </c>
       <c r="H46" t="s">
-        <v>563</v>
-      </c>
-      <c r="I46" t="s">
-        <v>198</v>
+        <v>508</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>37830</v>
+        <v>37850</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>668</v>
+        <v>295</v>
       </c>
       <c r="D47">
-        <v>11743</v>
+        <v>2189</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>523</v>
+        <v>277</v>
       </c>
       <c r="F47" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="G47" t="s">
         <v>155</v>
       </c>
       <c r="H47" t="s">
+        <v>508</v>
+      </c>
+      <c r="J47" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="I47" t="s">
-        <v>484</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="K47" s="9"/>
+      <c r="K47" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="48" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>38205</v>
+        <v>37851</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>577</v>
+        <v>535</v>
       </c>
       <c r="D48">
-        <v>14622</v>
+        <v>66197</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>578</v>
+        <v>536</v>
       </c>
       <c r="F48" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="G48" t="s">
         <v>155</v>
       </c>
       <c r="H48" t="s">
-        <v>563</v>
-      </c>
-      <c r="I48" t="s">
-        <v>394</v>
+        <v>508</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>37921</v>
+        <v>37852</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>553</v>
+        <v>664</v>
       </c>
       <c r="D49">
-        <v>14768</v>
+        <v>16021</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>554</v>
+        <v>255</v>
       </c>
       <c r="F49" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="G49" t="s">
         <v>155</v>
       </c>
       <c r="H49" t="s">
+        <v>508</v>
+      </c>
+      <c r="J49" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="I49" t="s">
-        <v>394</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="K49" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50">
-        <v>38127</v>
+        <v>37862</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="D50">
-        <v>17040</v>
+        <v>53733</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="F50" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="G50" t="s">
         <v>155</v>
       </c>
       <c r="H50" t="s">
-        <v>563</v>
-      </c>
-      <c r="I50" t="s">
-        <v>394</v>
+        <v>508</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51">
-        <v>38351</v>
+        <v>37863</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>621</v>
+        <v>539</v>
       </c>
       <c r="D51">
-        <v>21342</v>
+        <v>62255</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>622</v>
+        <v>259</v>
       </c>
       <c r="F51" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>620</v>
+        <v>155</v>
       </c>
       <c r="H51" t="s">
-        <v>563</v>
-      </c>
-      <c r="I51" t="s">
-        <v>198</v>
+        <v>508</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52">
-        <v>38206</v>
+        <v>37864</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>579</v>
+        <v>540</v>
       </c>
       <c r="D52">
-        <v>21686</v>
+        <v>56871</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>580</v>
+        <v>541</v>
       </c>
       <c r="F52" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="G52" t="s">
         <v>155</v>
       </c>
       <c r="H52" t="s">
-        <v>563</v>
-      </c>
-      <c r="I52" t="s">
-        <v>394</v>
+        <v>508</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53">
-        <v>37171</v>
+        <v>37865</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="D53">
-        <v>21834</v>
+        <v>52654</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G53" t="s">
         <v>155</v>
       </c>
       <c r="H53" t="s">
+        <v>508</v>
+      </c>
+      <c r="J53" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="I53" t="s">
-        <v>163</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="K53" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54">
-        <v>38301</v>
+        <v>37866</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>616</v>
+        <v>544</v>
       </c>
       <c r="D54">
-        <v>21835</v>
+        <v>79184</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>617</v>
+        <v>545</v>
       </c>
       <c r="F54" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="G54" t="s">
         <v>155</v>
       </c>
       <c r="H54" t="s">
-        <v>563</v>
-      </c>
-      <c r="I54" t="s">
-        <v>164</v>
+        <v>508</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55">
-        <v>38361</v>
+        <v>37867</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>628</v>
+        <v>546</v>
       </c>
       <c r="D55">
-        <v>22340</v>
+        <v>1876</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>633</v>
+        <v>275</v>
       </c>
       <c r="F55" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>620</v>
+        <v>155</v>
       </c>
       <c r="H55" t="s">
-        <v>563</v>
-      </c>
-      <c r="I55" t="s">
-        <v>385</v>
+        <v>508</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="K55" s="15" t="s">
-        <v>629</v>
+        <v>509</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -9434,322 +9515,292 @@
         <v>4</v>
       </c>
       <c r="B56">
-        <v>38234</v>
+        <v>37869</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>584</v>
+        <v>547</v>
       </c>
       <c r="D56">
-        <v>32505</v>
+        <v>2189</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>587</v>
+        <v>277</v>
       </c>
       <c r="F56" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="G56" t="s">
         <v>155</v>
       </c>
       <c r="H56" t="s">
-        <v>563</v>
-      </c>
-      <c r="I56" t="s">
-        <v>198</v>
+        <v>508</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57">
-        <v>37722</v>
+        <v>37870</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>669</v>
+        <v>548</v>
       </c>
       <c r="D57">
-        <v>35466</v>
+        <v>78089</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="F57" t="s">
-        <v>25</v>
+        <v>549</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G57" t="s">
         <v>155</v>
       </c>
       <c r="H57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J57" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="I57" t="s">
-        <v>163</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="K57" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58">
-        <v>38202</v>
+        <v>37885</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>573</v>
+        <v>665</v>
       </c>
       <c r="D58">
-        <v>45917</v>
+        <v>86181</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="F58" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="G58" t="s">
         <v>155</v>
       </c>
       <c r="H58" t="s">
-        <v>563</v>
-      </c>
-      <c r="I58" t="s">
-        <v>394</v>
+        <v>508</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59">
-        <v>38269</v>
+        <v>37922</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>602</v>
+        <v>554</v>
       </c>
       <c r="D59">
-        <v>50271</v>
+        <v>14772</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>603</v>
+        <v>555</v>
       </c>
       <c r="F59" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="G59" t="s">
         <v>155</v>
       </c>
       <c r="H59" t="s">
-        <v>563</v>
-      </c>
-      <c r="I59" t="s">
-        <v>164</v>
+        <v>508</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60">
-        <v>38145</v>
+        <v>37923</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="D60">
-        <v>52174</v>
+        <v>23421</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="F60" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="G60" t="s">
         <v>155</v>
       </c>
       <c r="H60" t="s">
-        <v>563</v>
-      </c>
-      <c r="I60" t="s">
-        <v>394</v>
+        <v>508</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="K60" t="s">
-        <v>122</v>
+        <v>509</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="2">
-        <v>38216</v>
+      <c r="B61">
+        <v>37925</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="D61" s="2">
-        <v>54249</v>
+        <v>558</v>
+      </c>
+      <c r="D61">
+        <v>13068</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G61" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F61" t="s">
+        <v>310</v>
+      </c>
+      <c r="G61" t="s">
         <v>155</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>128</v>
+      <c r="H61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62">
-        <v>38352</v>
+        <v>38140</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>624</v>
+        <v>563</v>
       </c>
       <c r="D62">
-        <v>67964</v>
+        <v>47301</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>625</v>
+        <v>564</v>
       </c>
       <c r="F62" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="G62" t="s">
-        <v>620</v>
+        <v>155</v>
       </c>
       <c r="H62" t="s">
-        <v>563</v>
-      </c>
-      <c r="I62" t="s">
-        <v>198</v>
+        <v>562</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="K62" t="s">
-        <v>149</v>
+        <v>509</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63">
-        <v>38238</v>
+      <c r="B63" s="2">
+        <v>38144</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>592</v>
+        <v>650</v>
       </c>
       <c r="D63">
-        <v>68979</v>
+        <v>20420</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="F63" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="G63" t="s">
         <v>155</v>
       </c>
       <c r="H63" t="s">
-        <v>563</v>
-      </c>
-      <c r="I63" t="s">
-        <v>198</v>
+        <v>562</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="K63" t="s">
-        <v>133</v>
+        <v>509</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64">
-        <v>38268</v>
+        <v>38203</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="D64" s="2">
-        <v>70141</v>
+        <v>574</v>
+      </c>
+      <c r="D64">
+        <v>57610</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="F64" t="s">
-        <v>260</v>
-      </c>
-      <c r="G64" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G64" t="s">
         <v>155</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>510</v>
+      <c r="H64" t="s">
+        <v>562</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>509</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65">
-        <v>38201</v>
+        <v>38236</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>632</v>
+        <v>587</v>
       </c>
       <c r="D65">
-        <v>70172</v>
+        <v>58377</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="F65" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="G65" t="s">
         <v>155</v>
       </c>
       <c r="H65" t="s">
-        <v>563</v>
-      </c>
-      <c r="I65" t="s">
-        <v>394</v>
+        <v>562</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -9757,307 +9808,297 @@
         <v>146</v>
       </c>
       <c r="B66">
-        <v>37842</v>
+        <v>38265</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="D66">
-        <v>86193</v>
+        <v>593</v>
+      </c>
+      <c r="D66" s="2">
+        <v>60980</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>216</v>
+        <v>594</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" t="s">
+        <v>310</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="I66" t="s">
-        <v>394</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="K66" s="1" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67">
-        <v>37846</v>
+        <v>38266</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="D67">
-        <v>48665</v>
+        <v>53220</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="F67" t="s">
-        <v>93</v>
+        <v>310</v>
       </c>
       <c r="G67" t="s">
         <v>155</v>
       </c>
       <c r="H67" t="s">
+        <v>562</v>
+      </c>
+      <c r="J67" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="I67" t="s">
-        <v>394</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="K67" s="1" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68">
-        <v>38350</v>
+        <v>38267</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="D68">
-        <v>34212</v>
+        <v>597</v>
+      </c>
+      <c r="D68" s="2">
+        <v>54955</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="F68" t="s">
-        <v>650</v>
-      </c>
-      <c r="G68" t="s">
-        <v>620</v>
-      </c>
-      <c r="H68" t="s">
-        <v>563</v>
-      </c>
-      <c r="I68" t="s">
-        <v>164</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>147</v>
+        <v>310</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K68" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69">
-        <v>38300</v>
+        <v>38293</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="D69">
-        <v>52216</v>
+        <v>64251</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F69" t="s">
-        <v>670</v>
+        <v>310</v>
       </c>
       <c r="G69" t="s">
         <v>155</v>
       </c>
       <c r="H69" t="s">
-        <v>563</v>
-      </c>
-      <c r="I69" t="s">
-        <v>164</v>
+        <v>562</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70">
-        <v>37831</v>
+        <v>38294</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>524</v>
+        <v>607</v>
       </c>
       <c r="D70">
-        <v>44473</v>
+        <v>23789</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>650</v>
+        <v>608</v>
+      </c>
+      <c r="F70" t="s">
+        <v>310</v>
       </c>
       <c r="G70" t="s">
         <v>155</v>
       </c>
       <c r="H70" t="s">
+        <v>562</v>
+      </c>
+      <c r="J70" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="J70" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="K70" s="1" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H91" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C47" r:id="rId1"/>
-    <hyperlink ref="C37" r:id="rId2"/>
-    <hyperlink ref="E55" r:id="rId3"/>
-    <hyperlink ref="C55" r:id="rId4"/>
-    <hyperlink ref="E46" r:id="rId5"/>
-    <hyperlink ref="C46" r:id="rId6"/>
-    <hyperlink ref="E62" r:id="rId7"/>
-    <hyperlink ref="C62" r:id="rId8"/>
-    <hyperlink ref="E51" r:id="rId9"/>
-    <hyperlink ref="C51" r:id="rId10"/>
-    <hyperlink ref="E68" r:id="rId11"/>
-    <hyperlink ref="C68" r:id="rId12"/>
-    <hyperlink ref="E54" r:id="rId13"/>
-    <hyperlink ref="C54" r:id="rId14"/>
-    <hyperlink ref="E69" r:id="rId15"/>
-    <hyperlink ref="C69" r:id="rId16"/>
-    <hyperlink ref="E4" r:id="rId17"/>
-    <hyperlink ref="C4" r:id="rId18"/>
-    <hyperlink ref="E3" r:id="rId19"/>
-    <hyperlink ref="C3" r:id="rId20"/>
-    <hyperlink ref="E44" r:id="rId21"/>
-    <hyperlink ref="C44" r:id="rId22"/>
-    <hyperlink ref="E43" r:id="rId23"/>
-    <hyperlink ref="C43" r:id="rId24"/>
-    <hyperlink ref="E8" r:id="rId25"/>
-    <hyperlink ref="C8" r:id="rId26"/>
-    <hyperlink ref="E59" r:id="rId27"/>
-    <hyperlink ref="C59" r:id="rId28"/>
-    <hyperlink ref="E64" r:id="rId29"/>
-    <hyperlink ref="C64" r:id="rId30"/>
-    <hyperlink ref="E42" r:id="rId31"/>
-    <hyperlink ref="C42" r:id="rId32"/>
-    <hyperlink ref="E41" r:id="rId33"/>
-    <hyperlink ref="C41" r:id="rId34"/>
-    <hyperlink ref="E40" r:id="rId35"/>
-    <hyperlink ref="C40" r:id="rId36"/>
-    <hyperlink ref="E63" r:id="rId37"/>
-    <hyperlink ref="C63" r:id="rId38"/>
-    <hyperlink ref="E45" r:id="rId39"/>
-    <hyperlink ref="C45" r:id="rId40"/>
-    <hyperlink ref="E39" r:id="rId41"/>
-    <hyperlink ref="C39" r:id="rId42"/>
-    <hyperlink ref="E56" r:id="rId43"/>
-    <hyperlink ref="E6" r:id="rId44"/>
-    <hyperlink ref="C6" r:id="rId45"/>
-    <hyperlink ref="C56" r:id="rId46"/>
-    <hyperlink ref="E61" r:id="rId47"/>
-    <hyperlink ref="C61" r:id="rId48"/>
-    <hyperlink ref="E52" r:id="rId49"/>
-    <hyperlink ref="C52" r:id="rId50"/>
-    <hyperlink ref="E48" r:id="rId51"/>
-    <hyperlink ref="C48" r:id="rId52"/>
-    <hyperlink ref="E38" r:id="rId53"/>
-    <hyperlink ref="C38" r:id="rId54"/>
-    <hyperlink ref="E58" r:id="rId55"/>
-    <hyperlink ref="C58" r:id="rId56"/>
-    <hyperlink ref="E65" r:id="rId57"/>
-    <hyperlink ref="C65" r:id="rId58"/>
-    <hyperlink ref="E60" r:id="rId59"/>
-    <hyperlink ref="C60" r:id="rId60"/>
-    <hyperlink ref="E37" r:id="rId61"/>
+    <hyperlink ref="C21" r:id="rId1"/>
+    <hyperlink ref="C63" r:id="rId2"/>
+    <hyperlink ref="E22" r:id="rId3"/>
+    <hyperlink ref="C22" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="E16" r:id="rId7"/>
+    <hyperlink ref="C16" r:id="rId8"/>
+    <hyperlink ref="E11" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="E33" r:id="rId11"/>
+    <hyperlink ref="C33" r:id="rId12"/>
+    <hyperlink ref="E28" r:id="rId13"/>
+    <hyperlink ref="C28" r:id="rId14"/>
+    <hyperlink ref="E34" r:id="rId15"/>
+    <hyperlink ref="C34" r:id="rId16"/>
+    <hyperlink ref="E25" r:id="rId17"/>
+    <hyperlink ref="C25" r:id="rId18"/>
+    <hyperlink ref="E24" r:id="rId19"/>
+    <hyperlink ref="C24" r:id="rId20"/>
+    <hyperlink ref="E70" r:id="rId21"/>
+    <hyperlink ref="C70" r:id="rId22"/>
+    <hyperlink ref="E69" r:id="rId23"/>
+    <hyperlink ref="C69" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="C26" r:id="rId26"/>
+    <hyperlink ref="E30" r:id="rId27"/>
+    <hyperlink ref="C30" r:id="rId28"/>
+    <hyperlink ref="E32" r:id="rId29"/>
+    <hyperlink ref="C32" r:id="rId30"/>
+    <hyperlink ref="E68" r:id="rId31"/>
+    <hyperlink ref="C68" r:id="rId32"/>
+    <hyperlink ref="E67" r:id="rId33"/>
+    <hyperlink ref="C67" r:id="rId34"/>
+    <hyperlink ref="E66" r:id="rId35"/>
+    <hyperlink ref="C66" r:id="rId36"/>
+    <hyperlink ref="E17" r:id="rId37"/>
+    <hyperlink ref="C17" r:id="rId38"/>
+    <hyperlink ref="E6" r:id="rId39"/>
+    <hyperlink ref="C6" r:id="rId40"/>
+    <hyperlink ref="E65" r:id="rId41"/>
+    <hyperlink ref="C65" r:id="rId42"/>
+    <hyperlink ref="E13" r:id="rId43"/>
+    <hyperlink ref="E4" r:id="rId44"/>
+    <hyperlink ref="C4" r:id="rId45"/>
+    <hyperlink ref="C13" r:id="rId46"/>
+    <hyperlink ref="E31" r:id="rId47"/>
+    <hyperlink ref="C31" r:id="rId48"/>
+    <hyperlink ref="E12" r:id="rId49"/>
+    <hyperlink ref="C12" r:id="rId50"/>
+    <hyperlink ref="E8" r:id="rId51"/>
+    <hyperlink ref="C8" r:id="rId52"/>
+    <hyperlink ref="E64" r:id="rId53"/>
+    <hyperlink ref="C64" r:id="rId54"/>
+    <hyperlink ref="E14" r:id="rId55"/>
+    <hyperlink ref="C14" r:id="rId56"/>
+    <hyperlink ref="E18" r:id="rId57"/>
+    <hyperlink ref="C18" r:id="rId58"/>
+    <hyperlink ref="E15" r:id="rId59"/>
+    <hyperlink ref="C15" r:id="rId60"/>
+    <hyperlink ref="E63" r:id="rId61"/>
     <hyperlink ref="E2" r:id="rId62"/>
     <hyperlink ref="C2" r:id="rId63"/>
-    <hyperlink ref="E7" r:id="rId64"/>
-    <hyperlink ref="C7" r:id="rId65"/>
-    <hyperlink ref="E36" r:id="rId66"/>
-    <hyperlink ref="C36" r:id="rId67"/>
-    <hyperlink ref="E50" r:id="rId68"/>
-    <hyperlink ref="C50" r:id="rId69"/>
-    <hyperlink ref="E35" r:id="rId70"/>
-    <hyperlink ref="C35" r:id="rId71"/>
-    <hyperlink ref="E34" r:id="rId72"/>
-    <hyperlink ref="C34" r:id="rId73"/>
-    <hyperlink ref="E33" r:id="rId74"/>
-    <hyperlink ref="C33" r:id="rId75"/>
-    <hyperlink ref="E49" r:id="rId76"/>
-    <hyperlink ref="C49" r:id="rId77"/>
-    <hyperlink ref="E5" r:id="rId78"/>
-    <hyperlink ref="C5" r:id="rId79"/>
-    <hyperlink ref="E32" r:id="rId80"/>
-    <hyperlink ref="C32" r:id="rId81"/>
-    <hyperlink ref="E31" r:id="rId82"/>
-    <hyperlink ref="C31" r:id="rId83"/>
-    <hyperlink ref="E30" r:id="rId84"/>
-    <hyperlink ref="C30" r:id="rId85"/>
-    <hyperlink ref="E29" r:id="rId86"/>
-    <hyperlink ref="C29" r:id="rId87"/>
-    <hyperlink ref="E28" r:id="rId88"/>
-    <hyperlink ref="C28" r:id="rId89"/>
-    <hyperlink ref="E27" r:id="rId90"/>
-    <hyperlink ref="C27" r:id="rId91"/>
-    <hyperlink ref="E26" r:id="rId92"/>
-    <hyperlink ref="C26" r:id="rId93"/>
-    <hyperlink ref="E25" r:id="rId94"/>
-    <hyperlink ref="C25" r:id="rId95"/>
-    <hyperlink ref="E24" r:id="rId96"/>
-    <hyperlink ref="C24" r:id="rId97"/>
-    <hyperlink ref="E23" r:id="rId98"/>
-    <hyperlink ref="C23" r:id="rId99"/>
-    <hyperlink ref="E22" r:id="rId100"/>
-    <hyperlink ref="C22" r:id="rId101"/>
-    <hyperlink ref="E21" r:id="rId102"/>
-    <hyperlink ref="C21" r:id="rId103"/>
-    <hyperlink ref="E20" r:id="rId104"/>
-    <hyperlink ref="C20" r:id="rId105"/>
-    <hyperlink ref="E19" r:id="rId106"/>
-    <hyperlink ref="C19" r:id="rId107"/>
-    <hyperlink ref="E67" r:id="rId108"/>
-    <hyperlink ref="C67" r:id="rId109"/>
-    <hyperlink ref="E18" r:id="rId110"/>
-    <hyperlink ref="C18" r:id="rId111"/>
-    <hyperlink ref="E17" r:id="rId112"/>
-    <hyperlink ref="C17" r:id="rId113"/>
-    <hyperlink ref="E16" r:id="rId114"/>
-    <hyperlink ref="C16" r:id="rId115"/>
-    <hyperlink ref="E66" r:id="rId116"/>
-    <hyperlink ref="C66" r:id="rId117"/>
-    <hyperlink ref="E15" r:id="rId118"/>
-    <hyperlink ref="C15" r:id="rId119"/>
-    <hyperlink ref="E70" r:id="rId120"/>
-    <hyperlink ref="C70" r:id="rId121"/>
-    <hyperlink ref="E47" r:id="rId122"/>
-    <hyperlink ref="E14" r:id="rId123"/>
-    <hyperlink ref="C14" r:id="rId124"/>
-    <hyperlink ref="E13" r:id="rId125"/>
-    <hyperlink ref="C13" r:id="rId126"/>
-    <hyperlink ref="E12" r:id="rId127"/>
-    <hyperlink ref="C12" r:id="rId128"/>
-    <hyperlink ref="E57" r:id="rId129"/>
-    <hyperlink ref="C57" r:id="rId130"/>
-    <hyperlink ref="E11" r:id="rId131"/>
-    <hyperlink ref="C11" r:id="rId132"/>
-    <hyperlink ref="E10" r:id="rId133"/>
-    <hyperlink ref="C10" r:id="rId134"/>
-    <hyperlink ref="E9" r:id="rId135"/>
-    <hyperlink ref="C9" r:id="rId136"/>
-    <hyperlink ref="E53" r:id="rId137"/>
-    <hyperlink ref="C53" r:id="rId138"/>
+    <hyperlink ref="E5" r:id="rId64"/>
+    <hyperlink ref="C5" r:id="rId65"/>
+    <hyperlink ref="E62" r:id="rId66"/>
+    <hyperlink ref="C62" r:id="rId67"/>
+    <hyperlink ref="E10" r:id="rId68"/>
+    <hyperlink ref="C10" r:id="rId69"/>
+    <hyperlink ref="E61" r:id="rId70"/>
+    <hyperlink ref="C61" r:id="rId71"/>
+    <hyperlink ref="E60" r:id="rId72"/>
+    <hyperlink ref="C60" r:id="rId73"/>
+    <hyperlink ref="E59" r:id="rId74"/>
+    <hyperlink ref="C59" r:id="rId75"/>
+    <hyperlink ref="E9" r:id="rId76"/>
+    <hyperlink ref="C9" r:id="rId77"/>
+    <hyperlink ref="E3" r:id="rId78"/>
+    <hyperlink ref="C3" r:id="rId79"/>
+    <hyperlink ref="E58" r:id="rId80"/>
+    <hyperlink ref="C58" r:id="rId81"/>
+    <hyperlink ref="E57" r:id="rId82"/>
+    <hyperlink ref="C57" r:id="rId83"/>
+    <hyperlink ref="E56" r:id="rId84"/>
+    <hyperlink ref="C56" r:id="rId85"/>
+    <hyperlink ref="E55" r:id="rId86"/>
+    <hyperlink ref="C55" r:id="rId87"/>
+    <hyperlink ref="E54" r:id="rId88"/>
+    <hyperlink ref="C54" r:id="rId89"/>
+    <hyperlink ref="E53" r:id="rId90"/>
+    <hyperlink ref="C53" r:id="rId91"/>
+    <hyperlink ref="E52" r:id="rId92"/>
+    <hyperlink ref="C52" r:id="rId93"/>
+    <hyperlink ref="E51" r:id="rId94"/>
+    <hyperlink ref="C51" r:id="rId95"/>
+    <hyperlink ref="E50" r:id="rId96"/>
+    <hyperlink ref="C50" r:id="rId97"/>
+    <hyperlink ref="E49" r:id="rId98"/>
+    <hyperlink ref="C49" r:id="rId99"/>
+    <hyperlink ref="E48" r:id="rId100"/>
+    <hyperlink ref="C48" r:id="rId101"/>
+    <hyperlink ref="E47" r:id="rId102"/>
+    <hyperlink ref="C47" r:id="rId103"/>
+    <hyperlink ref="E46" r:id="rId104"/>
+    <hyperlink ref="C46" r:id="rId105"/>
+    <hyperlink ref="E45" r:id="rId106"/>
+    <hyperlink ref="C45" r:id="rId107"/>
+    <hyperlink ref="E20" r:id="rId108"/>
+    <hyperlink ref="C20" r:id="rId109"/>
+    <hyperlink ref="E44" r:id="rId110"/>
+    <hyperlink ref="C44" r:id="rId111"/>
+    <hyperlink ref="E43" r:id="rId112"/>
+    <hyperlink ref="C43" r:id="rId113"/>
+    <hyperlink ref="E42" r:id="rId114"/>
+    <hyperlink ref="C42" r:id="rId115"/>
+    <hyperlink ref="E19" r:id="rId116"/>
+    <hyperlink ref="C19" r:id="rId117"/>
+    <hyperlink ref="E41" r:id="rId118"/>
+    <hyperlink ref="C41" r:id="rId119"/>
+    <hyperlink ref="E23" r:id="rId120"/>
+    <hyperlink ref="C23" r:id="rId121"/>
+    <hyperlink ref="E21" r:id="rId122"/>
+    <hyperlink ref="E40" r:id="rId123"/>
+    <hyperlink ref="C40" r:id="rId124"/>
+    <hyperlink ref="E39" r:id="rId125"/>
+    <hyperlink ref="C39" r:id="rId126"/>
+    <hyperlink ref="E38" r:id="rId127"/>
+    <hyperlink ref="C38" r:id="rId128"/>
+    <hyperlink ref="E29" r:id="rId129"/>
+    <hyperlink ref="C29" r:id="rId130"/>
+    <hyperlink ref="E37" r:id="rId131"/>
+    <hyperlink ref="C37" r:id="rId132"/>
+    <hyperlink ref="E36" r:id="rId133"/>
+    <hyperlink ref="C36" r:id="rId134"/>
+    <hyperlink ref="E35" r:id="rId135"/>
+    <hyperlink ref="C35" r:id="rId136"/>
+    <hyperlink ref="E27" r:id="rId137"/>
+    <hyperlink ref="C27" r:id="rId138"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId139"/>
@@ -10087,7 +10128,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10098,30 +10139,30 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>638</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>639</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>640</v>
       </c>
       <c r="F1" s="18"/>
       <c r="G1" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>638</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>639</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>640</v>
       </c>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B2" s="18">
         <v>4</v>
@@ -10130,28 +10171,28 @@
         <v>3</v>
       </c>
       <c r="D2" s="18">
-        <f t="shared" ref="D2:D7" si="0">SUM(B2:C2)</f>
+        <f t="shared" ref="D2:D6" si="0">SUM(B2:C2)</f>
         <v>7</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G2" s="18">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H2" s="19">
         <v>19</v>
       </c>
       <c r="I2" s="19">
         <f>SUM(G2:H2)</f>
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B3" s="18">
         <v>1</v>
@@ -10167,21 +10208,21 @@
         <v>163</v>
       </c>
       <c r="G3" s="18">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H3" s="19">
         <v>11</v>
       </c>
       <c r="I3" s="19">
         <f t="shared" ref="I3:I5" si="1">SUM(G3:H3)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B4" s="18">
         <v>29</v>
@@ -10194,24 +10235,24 @@
         <v>50</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G4" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H4" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -10224,24 +10265,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G5" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H5" s="19">
         <v>1</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B6" s="18">
         <v>0</v>
@@ -10272,25 +10313,16 @@
         <v>4</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="17">
-        <f>SUM(G2:G3,G4:G5)</f>
-        <v>57</v>
-      </c>
-      <c r="H7" s="17">
-        <f>SUM(H2:H3,H4:H5)</f>
-        <v>32</v>
-      </c>
-      <c r="I7" s="22">
-        <f>SUM(G7:H7)</f>
-        <v>89</v>
-      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="24"/>
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B8" s="18">
         <v>0</v>
@@ -10347,7 +10379,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B11" s="18">
         <v>23</v>
@@ -10382,7 +10414,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B13" s="18">
         <v>12</v>
@@ -10417,7 +10449,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B15" s="18">
         <v>14</v>
@@ -10468,18 +10500,9 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
-      <c r="B19" s="17">
-        <f>SUM(B9:B15)</f>
-        <v>87</v>
-      </c>
-      <c r="C19" s="17">
-        <f>SUM(C9:C15)</f>
-        <v>69</v>
-      </c>
-      <c r="D19" s="17">
-        <f>SUM(D9:D15)</f>
-        <v>156</v>
-      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>

--- a/reportedbug.xlsx
+++ b/reportedbug.xlsx
@@ -10128,7 +10128,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/reportedbug.xlsx
+++ b/reportedbug.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\approach\otherreport\paper\otherbugreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C24006D-10CB-4F9F-A53F-022E33C3D87B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE8B66D-4F98-4DD4-8B85-36137A88ABB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gcc bugs" sheetId="1" r:id="rId1"/>
@@ -4145,12 +4145,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <charset val="134"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -4173,12 +4167,6 @@
         <charset val="134"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="134"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4308,6 +4296,18 @@
         <charset val="134"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="134"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="134"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4322,44 +4322,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="B1:K88" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="B1:K88" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B1:K88" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="B2:K88">
     <sortCondition ref="I1:I88"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="reported ID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="URL" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="referenced ID" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="referenced URL" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="status" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="component" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="importance" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="keyword" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="version" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="code sample" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="reported ID" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="URL" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="referenced ID" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="referenced URL" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="status" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="component" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="importance" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="keyword" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="version" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="code sample" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_5" displayName="表1_5" ref="B1:K70" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_5" displayName="表1_5" ref="B1:K70" totalsRowShown="0" dataDxfId="10">
   <autoFilter ref="B1:K70" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState ref="B2:K70">
     <sortCondition ref="I1:I70"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="reported ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="URL" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="referenced ID" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="referenced URL" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="status" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="component" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="importance" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="keyword" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="version" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="code sample" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="reported ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="URL" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="referenced ID" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="referenced URL" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="status" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="component" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="importance" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="keyword" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="version" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="code sample" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4630,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView topLeftCell="B58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:F88"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7835,7 +7835,7 @@
     <hyperlink ref="C74" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
   <tableParts count="1">
     <tablePart r:id="rId41"/>
   </tableParts>
@@ -10212,7 +10212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:E18"/>
     </sheetView>
   </sheetViews>

--- a/reportedbug.xlsx
+++ b/reportedbug.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\approach\otherreport\paper\otherbugreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\approach\otherreport\paper\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE8B66D-4F98-4DD4-8B85-36137A88ABB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E690FDD3-E65F-4ECF-A49B-FED5159723B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4108,7 +4108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4136,6 +4136,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4631,7 +4632,7 @@
   <dimension ref="A1:K191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5301,7 +5302,7 @@
       <c r="D21" s="4">
         <v>13447</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="19" t="s">
         <v>470</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -7833,11 +7834,12 @@
     <hyperlink ref="C48" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="E48" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="C74" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E21" r:id="rId40" xr:uid="{302A979B-56F3-4095-8724-3608BBD3C302}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
   <tableParts count="1">
-    <tablePart r:id="rId41"/>
+    <tablePart r:id="rId42"/>
   </tableParts>
 </worksheet>
 </file>
